--- a/MainFlow.xlsx
+++ b/MainFlow.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>F2</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>FLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              Manage Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seller </t>
   </si>
   <si>
     <t>Admin</t>
@@ -197,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -238,12 +232,6 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -350,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -380,8 +368,7 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -410,37 +397,25 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -665,21 +640,22 @@
     <col customWidth="1" min="1" max="1" width="25.0"/>
     <col customWidth="1" min="7" max="7" width="9.75"/>
     <col customWidth="1" min="8" max="8" width="21.5"/>
-    <col customWidth="1" min="13" max="13" width="32.38"/>
-    <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="15" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="15.13"/>
+    <col customWidth="1" min="12" max="12" width="32.38"/>
+    <col customWidth="1" min="13" max="13" width="12.0"/>
+    <col customWidth="1" min="14" max="14" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -693,14 +669,14 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -713,20 +689,19 @@
       <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="M3" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -743,230 +718,222 @@
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12">
+      <c r="I4" s="11">
         <v>1.0</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="14">
+      <c r="M4" s="13">
         <v>1.0</v>
       </c>
-      <c r="O4" s="14">
+      <c r="N4" s="13">
         <v>1.0</v>
       </c>
-      <c r="P4" s="14">
+      <c r="O4" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1.0</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12">
+      <c r="I5" s="11">
         <v>2.0</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="M5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="13">
         <v>2.0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="O5" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2.0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.0</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12">
+      <c r="I6" s="11">
         <v>3.0</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="M6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="13">
         <v>3.0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="O6" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>3.0</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0.0</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12">
+      <c r="I7" s="11">
         <v>8.0</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="M7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="13">
         <v>4.0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="O7" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>4.0</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.0</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12">
+      <c r="I8" s="11">
         <v>4.0</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="M8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="13">
         <v>5.0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="O8" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>5.0</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.0</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12">
+      <c r="I9" s="11">
         <v>5.0</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="M9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>7.0</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>2.0</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12">
+      <c r="I10" s="11">
         <v>10.0</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="M10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="13">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>8.0</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>3.0</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12">
+      <c r="I11" s="11">
         <v>6.0</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="M11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="13">
         <v>9.0</v>
       </c>
     </row>
@@ -974,20 +941,19 @@
       <c r="H12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12">
+      <c r="I12" s="11">
         <v>8.0</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="M12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="13">
         <v>10.0</v>
       </c>
     </row>
@@ -995,20 +961,19 @@
       <c r="H13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12">
+      <c r="I13" s="11">
         <v>14.0</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="M13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="13">
         <v>11.0</v>
       </c>
     </row>
@@ -1016,20 +981,19 @@
       <c r="H14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12">
+      <c r="I14" s="11">
         <v>13.0</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="14">
+      <c r="M14" s="13">
         <v>12.0</v>
       </c>
-      <c r="O14" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P14" s="16">
+      <c r="N14" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -1037,238 +1001,200 @@
       <c r="H15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12">
+      <c r="I15" s="11">
         <v>9.0</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="14">
+      <c r="M15" s="13">
         <v>13.0</v>
       </c>
-      <c r="O15" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="N15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12">
+      <c r="I16" s="11">
         <v>7.0</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="14">
+      <c r="M16" s="13">
         <v>14.0</v>
       </c>
-      <c r="O16" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="16">
+      <c r="N16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12">
+      <c r="I17" s="11">
         <v>11.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12">
+      <c r="I18" s="11">
         <v>12.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20">
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21">
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22">
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="19"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="18"/>
+      <c r="H23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="18"/>
+      <c r="H24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="19"/>
-      <c r="H24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="25" t="s">
+    </row>
+    <row r="25">
+      <c r="D25" s="18"/>
+      <c r="H25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="18"/>
+      <c r="H26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="I26" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="18"/>
+      <c r="H27" s="26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="D25" s="19"/>
-      <c r="H25" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" s="19"/>
-      <c r="H26" s="26" t="s">
+      <c r="I27" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="18"/>
+      <c r="H28" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" s="19"/>
-      <c r="H27" s="29" t="s">
+      <c r="I28" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="18"/>
+      <c r="H29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="J27" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" s="19"/>
-      <c r="H28" s="26" t="s">
+      <c r="I29" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="18"/>
+      <c r="H30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" s="19"/>
-      <c r="H29" s="26" t="s">
+      <c r="I30" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="18"/>
+      <c r="H31" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="J29" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" s="19"/>
-      <c r="H30" s="26" t="s">
+      <c r="I31" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="18"/>
+      <c r="H32" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="J30" s="31">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" s="19"/>
-      <c r="H31" s="26" t="s">
+      <c r="I32" s="28">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="18"/>
+      <c r="F33" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="J31" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="19"/>
-      <c r="H32" s="29" t="s">
+    </row>
+    <row r="34">
+      <c r="F34" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="33">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" s="19"/>
-      <c r="F33" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" s="34" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="37">
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="29" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H22:J22"/>
+  <mergeCells count="6">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/MainFlow.xlsx
+++ b/MainFlow.xlsx
@@ -5,13 +5,20 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_3E306047_A7E0_4B47_8138_6E675DD9EDD2_.wvu.FilterData">Sheet1!$H$3:$I$18</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E13CF567_6428_4289_B52A_84955F279144_.wvu.FilterData">Sheet1!$H$4:$I$18</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E306047-A7E0-4B47-8138-6E675DD9EDD2}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E13CF567-6428-4289-B52A-84955F279144}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>F2</t>
   </si>
@@ -79,7 +86,7 @@
     <t>Product filling</t>
   </si>
   <si>
-    <t xml:space="preserve"> Buy products</t>
+    <t xml:space="preserve"> Search by keyword</t>
   </si>
   <si>
     <t>Await confirmation</t>
@@ -88,7 +95,7 @@
     <t>Person information dictionary</t>
   </si>
   <si>
-    <t>Search by keyword</t>
+    <t xml:space="preserve"> Filter products</t>
   </si>
   <si>
     <t>Track history</t>
@@ -97,7 +104,7 @@
     <t>Confirm sale</t>
   </si>
   <si>
-    <t>Filter products</t>
+    <t xml:space="preserve"> Contacting the seller</t>
   </si>
   <si>
     <t>Confirm return</t>
@@ -106,49 +113,55 @@
     <t>returns and refunds</t>
   </si>
   <si>
+    <t>View Discount</t>
+  </si>
+  <si>
+    <t>Product warranty/maintenance</t>
+  </si>
+  <si>
+    <t>Buy products</t>
+  </si>
+  <si>
+    <t>Confirm order cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating </t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Product warranty/maintenance</t>
-  </si>
-  <si>
-    <t>Contacting the seller</t>
-  </si>
-  <si>
-    <t>Confirm order cancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating </t>
-  </si>
-  <si>
-    <t>Refund</t>
+    <t>Process requests</t>
+  </si>
+  <si>
+    <t>Accumulate points</t>
+  </si>
+  <si>
+    <t>Monitor progress</t>
+  </si>
+  <si>
+    <t>Track return history</t>
+  </si>
+  <si>
+    <t>Update history</t>
+  </si>
+  <si>
+    <t>Reciept</t>
   </si>
   <si>
     <t>Responding to transactions</t>
   </si>
   <si>
-    <t>Reciept</t>
-  </si>
-  <si>
-    <t>Process requests</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>Monitor progress</t>
-  </si>
-  <si>
-    <t>View Discount</t>
-  </si>
-  <si>
-    <t>Update history</t>
-  </si>
-  <si>
-    <t>Accumulate points</t>
-  </si>
-  <si>
-    <t>Track return history</t>
+    <t>Ban Account</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
   <si>
     <t>F4</t>
@@ -157,21 +170,42 @@
     <t>FLOW</t>
   </si>
   <si>
+    <t xml:space="preserve">                 Manage Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moderator</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>View list Account</t>
+  </si>
+  <si>
     <t>Add new product</t>
   </si>
   <si>
+    <t>Search Accounts</t>
+  </si>
+  <si>
     <t>Update product</t>
   </si>
   <si>
+    <t>Select Account</t>
+  </si>
+  <si>
     <t>View Product</t>
   </si>
   <si>
+    <t>Select Multiple Accounts</t>
+  </si>
+  <si>
     <t>Search product</t>
   </si>
   <si>
+    <t>Ban</t>
+  </si>
+  <si>
     <t>Update price</t>
   </si>
   <si>
@@ -181,17 +215,47 @@
     <t>View Products</t>
   </si>
   <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>adminstrator</t>
+    <t>manager Post</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>View list post</t>
+  </si>
+  <si>
+    <t>Search posts</t>
+  </si>
+  <si>
+    <t>Select post</t>
+  </si>
+  <si>
+    <t>Edit post</t>
+  </si>
+  <si>
+    <t>Remove post</t>
+  </si>
+  <si>
+    <t>View list post edtition requests</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>annh an vô thư hỏi xíu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -230,8 +294,20 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -239,12 +315,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +370,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -391,35 +482,95 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="11">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>23</v>
@@ -835,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>26</v>
@@ -864,7 +1015,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>29</v>
@@ -889,11 +1040,11 @@
       <c r="C10" s="16">
         <v>2.0</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="11">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>17</v>
@@ -922,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="11">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>34</v>
@@ -942,7 +1093,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="11">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>36</v>
@@ -962,7 +1113,7 @@
         <v>37</v>
       </c>
       <c r="I13" s="11">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>26</v>
@@ -982,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="11">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>39</v>
@@ -998,11 +1149,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="11">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>41</v>
@@ -1022,7 +1173,7 @@
         <v>42</v>
       </c>
       <c r="I16" s="11">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>43</v>
@@ -1038,19 +1189,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="11">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="11">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
@@ -1064,137 +1215,387 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21">
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22">
-      <c r="H22" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="A22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23">
+      <c r="A23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="D23" s="18"/>
-      <c r="H23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="21"/>
+      <c r="H23" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24">
+      <c r="A24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="18"/>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="I24" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25">
+      <c r="A25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1.0</v>
+      </c>
       <c r="D25" s="18"/>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="I25" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26">
+      <c r="A26" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="34">
+        <v>2.0</v>
+      </c>
       <c r="D26" s="18"/>
-      <c r="H26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="H26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27">
+      <c r="A27" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="34">
+        <v>3.0</v>
+      </c>
       <c r="D27" s="18"/>
-      <c r="H27" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="H27" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28">
+      <c r="A28" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="34">
+        <v>4.0</v>
+      </c>
       <c r="D28" s="18"/>
-      <c r="H28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="H28" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29">
+      <c r="A29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="34">
+        <v>4.5</v>
+      </c>
       <c r="D29" s="18"/>
-      <c r="H29" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="H29" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30">
+      <c r="A30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="34">
+        <v>5.0</v>
+      </c>
       <c r="D30" s="18"/>
-      <c r="H30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="H30" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="J30" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="18"/>
-      <c r="H31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="H31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="J31" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32">
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="18"/>
-      <c r="H32" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="28">
+      <c r="H32" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="43">
         <v>8.0</v>
       </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33">
       <c r="D33" s="18"/>
-      <c r="F33" s="29" t="s">
-        <v>56</v>
-      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34">
-      <c r="F34" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="A34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35">
-      <c r="F35" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36">
-      <c r="F36" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="A36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37">
-      <c r="F37" s="29" t="s">
-        <v>9</v>
+      <c r="A37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="34">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="C39" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="C41" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="48">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="48">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="48">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <customSheetViews>
+    <customSheetView guid="{E13CF567-6428-4289-B52A-84955F279144}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$H$4:$I$18">
+        <sortState ref="H4:I18">
+          <sortCondition ref="I4:I18"/>
+        </sortState>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{3E306047-A7E0-4B47-8138-6E675DD9EDD2}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$H$3:$I$18">
+        <sortState ref="H3:I18">
+          <sortCondition ref="I3:I18"/>
+        </sortState>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="8">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/MainFlow.xlsx
+++ b/MainFlow.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_3E306047_A7E0_4B47_8138_6E675DD9EDD2_.wvu.FilterData">Sheet1!$H$3:$I$18</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E13CF567_6428_4289_B52A_84955F279144_.wvu.FilterData">Sheet1!$H$4:$I$18</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D4ABBA3E_9801_4035_ACD3_B2B170CC84D9_.wvu.FilterData">Sheet1!$H$3:$I$18</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D0F131CD_52BA_4BEA_A20F_E5609CE107DD_.wvu.FilterData">Sheet1!$H$4:$I$18</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E306047-A7E0-4B47-8138-6E675DD9EDD2}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E13CF567-6428-4289-B52A-84955F279144}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D4ABBA3E-9801-4035-ACD3-B2B170CC84D9}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D0F131CD-52BA-4BEA-A20F-E5609CE107DD}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>F2</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Reject</t>
-  </si>
-  <si>
-    <t>annh an vô thư hỏi xíu</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="B42" s="34">
-        <v>4.5</v>
+        <v>5.0</v>
       </c>
       <c r="C42" s="46">
         <v>0.0</v>
@@ -1521,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="B43" s="34">
-        <v>5.0</v>
+        <v>5.5</v>
       </c>
       <c r="C43" s="46">
         <v>0.0</v>
@@ -1535,7 +1532,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" s="48">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1546,7 +1543,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" s="48">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
@@ -1557,29 +1554,22 @@
         <v>0.0</v>
       </c>
       <c r="C46" s="48">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="A47" s="49"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E13CF567-6428-4289-B52A-84955F279144}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D0F131CD-52BA-4BEA-A20F-E5609CE107DD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$4:$I$18">
         <sortState ref="H4:I18">
           <sortCondition ref="I4:I18"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3E306047-A7E0-4B47-8138-6E675DD9EDD2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D4ABBA3E-9801-4035-ACD3-B2B170CC84D9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$3:$I$18">
         <sortState ref="H3:I18">
           <sortCondition ref="I3:I18"/>
